--- a/GuoxiSuspensionBridge01/GuoxiSuspensionBridge01/Materials.xlsx
+++ b/GuoxiSuspensionBridge01/GuoxiSuspensionBridge01/Materials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="C50" sheetId="1" r:id="rId1"/>
@@ -360,8 +360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -371,7 +371,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>33500000000</v>
+        <v>34500000000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -401,7 +401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
